--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_38.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_38.xlsx
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_38.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_38.xlsx
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
